--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H2">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I2">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J2">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.99253064082717</v>
+        <v>0.102926</v>
       </c>
       <c r="N2">
-        <v>1.99253064082717</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.8545341732230145</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P2">
-        <v>0.8545341732230145</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q2">
-        <v>0.749820254623385</v>
+        <v>0.07757290743900001</v>
       </c>
       <c r="R2">
-        <v>0.749820254623385</v>
+        <v>0.3102916297560001</v>
       </c>
       <c r="S2">
-        <v>0.03405173039648224</v>
+        <v>0.002767241848613935</v>
       </c>
       <c r="T2">
-        <v>0.03405173039648224</v>
+        <v>0.001366265056733728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H3">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I3">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J3">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.339184933884157</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N3">
-        <v>0.339184933884157</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O3">
-        <v>0.1454658267769855</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P3">
-        <v>0.1454658267769855</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q3">
-        <v>0.127640563351063</v>
+        <v>1.635438311371</v>
       </c>
       <c r="R3">
-        <v>0.127640563351063</v>
+        <v>9.812629868226002</v>
       </c>
       <c r="S3">
-        <v>0.00579656527559206</v>
+        <v>0.05834064347286606</v>
       </c>
       <c r="T3">
-        <v>0.00579656527559206</v>
+        <v>0.04320662247370737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35356565893555</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H4">
-        <v>3.35356565893555</v>
+        <v>1.507353</v>
       </c>
       <c r="I4">
-        <v>0.3551112294008332</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J4">
-        <v>0.3551112294008332</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99253064082717</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N4">
-        <v>1.99253064082717</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O4">
-        <v>0.8545341732230145</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P4">
-        <v>0.8545341732230145</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q4">
-        <v>6.682082331454842</v>
+        <v>0.31683994802625</v>
       </c>
       <c r="R4">
-        <v>6.682082331454842</v>
+        <v>1.267359792105</v>
       </c>
       <c r="S4">
-        <v>0.3034546808182493</v>
+        <v>0.0113025641610811</v>
       </c>
       <c r="T4">
-        <v>0.3034546808182493</v>
+        <v>0.005580393514398051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,433 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H5">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I5">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J5">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.339184933884157</v>
+        <v>0.102926</v>
       </c>
       <c r="N5">
-        <v>0.339184933884157</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.1454658267769855</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P5">
-        <v>0.1454658267769855</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q5">
-        <v>1.137478946302234</v>
+        <v>0.01239777978666667</v>
       </c>
       <c r="R5">
-        <v>1.137478946302234</v>
+        <v>0.07438667872</v>
       </c>
       <c r="S5">
-        <v>0.05165654858258396</v>
+        <v>0.0004422633647261707</v>
       </c>
       <c r="T5">
-        <v>0.05165654858258396</v>
+        <v>0.0003275367753282078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.36549438862542</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H6">
-        <v>4.36549438862542</v>
+        <v>0.36136</v>
       </c>
       <c r="I6">
-        <v>0.4622650148973883</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J6">
-        <v>0.4622650148973883</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.99253064082717</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N6">
-        <v>1.99253064082717</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8545341732230145</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P6">
-        <v>0.8545341732230145</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q6">
-        <v>8.698381331695222</v>
+        <v>0.2613773894577778</v>
       </c>
       <c r="R6">
-        <v>8.698381331695222</v>
+        <v>2.35239650512</v>
       </c>
       <c r="S6">
-        <v>0.3950212523152642</v>
+        <v>0.009324060090925341</v>
       </c>
       <c r="T6">
-        <v>0.3950212523152642</v>
+        <v>0.01035798853825142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.36549438862542</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H7">
-        <v>4.36549438862542</v>
+        <v>0.36136</v>
       </c>
       <c r="I7">
-        <v>0.4622650148973883</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J7">
-        <v>0.4622650148973883</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.339184933884157</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N7">
-        <v>0.339184933884157</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O7">
-        <v>0.1454658267769855</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P7">
-        <v>0.1454658267769855</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q7">
-        <v>1.480709925577571</v>
+        <v>0.05063767793333333</v>
       </c>
       <c r="R7">
-        <v>1.480709925577571</v>
+        <v>0.3038260676</v>
       </c>
       <c r="S7">
-        <v>0.0672437625821241</v>
+        <v>0.001806387128185752</v>
       </c>
       <c r="T7">
-        <v>0.0672437625821241</v>
+        <v>0.001337796123643818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.944953715937822</v>
+        <v>3.418481</v>
       </c>
       <c r="H8">
-        <v>0.944953715937822</v>
+        <v>10.255443</v>
       </c>
       <c r="I8">
-        <v>0.1000617581169043</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J8">
-        <v>0.1000617581169043</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.99253064082717</v>
+        <v>0.102926</v>
       </c>
       <c r="N8">
-        <v>1.99253064082717</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.8545341732230145</v>
+        <v>0.03821605677617539</v>
       </c>
       <c r="P8">
-        <v>0.8545341732230145</v>
+        <v>0.02724178813968781</v>
       </c>
       <c r="Q8">
-        <v>1.882849233169604</v>
+        <v>0.3518505754060001</v>
       </c>
       <c r="R8">
-        <v>1.882849233169604</v>
+        <v>2.111103452436</v>
       </c>
       <c r="S8">
-        <v>0.08550619174367007</v>
+        <v>0.01255149083445167</v>
       </c>
       <c r="T8">
-        <v>0.08550619174367007</v>
+        <v>0.009295535559503658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.944953715937822</v>
+        <v>3.418481</v>
       </c>
       <c r="H9">
-        <v>0.944953715937822</v>
+        <v>10.255443</v>
       </c>
       <c r="I9">
-        <v>0.1000617581169043</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J9">
-        <v>0.1000617581169043</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.339184933884157</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N9">
-        <v>0.339184933884157</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O9">
-        <v>0.1454658267769855</v>
+        <v>0.8056937070514454</v>
       </c>
       <c r="P9">
-        <v>0.1454658267769855</v>
+        <v>0.8614914433031574</v>
       </c>
       <c r="Q9">
-        <v>0.3205140636639586</v>
+        <v>7.417923730000668</v>
       </c>
       <c r="R9">
-        <v>0.3205140636639586</v>
+        <v>66.76131357000602</v>
       </c>
       <c r="S9">
-        <v>0.01455556637323422</v>
+        <v>0.2646180174647433</v>
       </c>
       <c r="T9">
-        <v>0.01455556637323422</v>
+        <v>0.2939610389879643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4033755962673</v>
+        <v>3.418481</v>
       </c>
       <c r="H10">
-        <v>0.4033755962673</v>
+        <v>10.255443</v>
       </c>
       <c r="I10">
-        <v>0.04271370191279979</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J10">
-        <v>0.04271370191279979</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.99253064082717</v>
+        <v>0.4203924999999999</v>
       </c>
       <c r="N10">
-        <v>1.99253064082717</v>
+        <v>0.8407849999999999</v>
       </c>
       <c r="O10">
-        <v>0.8545341732230145</v>
+        <v>0.1560902361723793</v>
       </c>
       <c r="P10">
-        <v>0.8545341732230145</v>
+        <v>0.1112667685571547</v>
       </c>
       <c r="Q10">
-        <v>0.803738235324525</v>
+        <v>1.4371037737925</v>
       </c>
       <c r="R10">
-        <v>0.803738235324525</v>
+        <v>8.622622642754999</v>
       </c>
       <c r="S10">
-        <v>0.03650031794934866</v>
+        <v>0.05126549764512583</v>
       </c>
       <c r="T10">
-        <v>0.03650031794934866</v>
+        <v>0.03796682502670502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.597592</v>
+      </c>
+      <c r="H11">
+        <v>13.792776</v>
+      </c>
+      <c r="I11">
+        <v>0.44171962805982</v>
+      </c>
+      <c r="J11">
+        <v>0.4589190263438705</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.102926</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P11">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q11">
+        <v>0.473211754192</v>
+      </c>
+      <c r="R11">
+        <v>2.839270525152</v>
+      </c>
+      <c r="S11">
+        <v>0.01688078238508516</v>
+      </c>
+      <c r="T11">
+        <v>0.01250177488893153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.597592</v>
+      </c>
+      <c r="H12">
+        <v>13.792776</v>
+      </c>
+      <c r="I12">
+        <v>0.44171962805982</v>
+      </c>
+      <c r="J12">
+        <v>0.4589190263438705</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P12">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q12">
+        <v>9.976532500154667</v>
+      </c>
+      <c r="R12">
+        <v>89.78879250139201</v>
+      </c>
+      <c r="S12">
+        <v>0.355890724608902</v>
+      </c>
+      <c r="T12">
+        <v>0.3953548143642607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.597592</v>
+      </c>
+      <c r="H13">
+        <v>13.792776</v>
+      </c>
+      <c r="I13">
+        <v>0.44171962805982</v>
+      </c>
+      <c r="J13">
+        <v>0.4589190263438705</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P13">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q13">
+        <v>1.93279319486</v>
+      </c>
+      <c r="R13">
+        <v>11.59675916916</v>
+      </c>
+      <c r="S13">
+        <v>0.06894812106583285</v>
+      </c>
+      <c r="T13">
+        <v>0.05106243709067822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.304825</v>
+      </c>
+      <c r="I14">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J14">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.102926</v>
+      </c>
+      <c r="N14">
+        <v>0.205852</v>
+      </c>
+      <c r="O14">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P14">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q14">
+        <v>0.1133841393166667</v>
+      </c>
+      <c r="R14">
+        <v>0.6803048359</v>
+      </c>
+      <c r="S14">
+        <v>0.004044728316169932</v>
+      </c>
+      <c r="T14">
+        <v>0.00299549403233353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.304825</v>
+      </c>
+      <c r="I15">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J15">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P15">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q15">
+        <v>2.390432065294445</v>
+      </c>
+      <c r="R15">
+        <v>21.51388858765</v>
+      </c>
+      <c r="S15">
+        <v>0.08527337527671112</v>
+      </c>
+      <c r="T15">
+        <v>0.09472918826357855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="H11">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="I11">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="J11">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.339184933884157</v>
-      </c>
-      <c r="N11">
-        <v>0.339184933884157</v>
-      </c>
-      <c r="O11">
-        <v>0.1454658267769855</v>
-      </c>
-      <c r="P11">
-        <v>0.1454658267769855</v>
-      </c>
-      <c r="Q11">
-        <v>0.1368189249504066</v>
-      </c>
-      <c r="R11">
-        <v>0.1368189249504066</v>
-      </c>
-      <c r="S11">
-        <v>0.006213383963451126</v>
-      </c>
-      <c r="T11">
-        <v>0.006213383963451126</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.304825</v>
+      </c>
+      <c r="I16">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J16">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P16">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q16">
+        <v>0.4631078812708332</v>
+      </c>
+      <c r="R16">
+        <v>2.778647287625</v>
+      </c>
+      <c r="S16">
+        <v>0.01652034907268784</v>
+      </c>
+      <c r="T16">
+        <v>0.01223484080784032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.416583</v>
+      </c>
+      <c r="H17">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J17">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.102926</v>
+      </c>
+      <c r="N17">
+        <v>0.205852</v>
+      </c>
+      <c r="O17">
+        <v>0.03821605677617539</v>
+      </c>
+      <c r="P17">
+        <v>0.02724178813968781</v>
+      </c>
+      <c r="Q17">
+        <v>0.042877221858</v>
+      </c>
+      <c r="R17">
+        <v>0.171508887432</v>
+      </c>
+      <c r="S17">
+        <v>0.001529550027128534</v>
+      </c>
+      <c r="T17">
+        <v>0.0007551818268571552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.416583</v>
+      </c>
+      <c r="H18">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J18">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.169947333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.509842000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.8056937070514454</v>
+      </c>
+      <c r="P18">
+        <v>0.8614914433031574</v>
+      </c>
+      <c r="Q18">
+        <v>0.9039631699620001</v>
+      </c>
+      <c r="R18">
+        <v>5.423779019772001</v>
+      </c>
+      <c r="S18">
+        <v>0.03224688613729758</v>
+      </c>
+      <c r="T18">
+        <v>0.02388179067539513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.416583</v>
+      </c>
+      <c r="H19">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J19">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4203924999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.8407849999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1560902361723793</v>
+      </c>
+      <c r="P19">
+        <v>0.1112667685571547</v>
+      </c>
+      <c r="Q19">
+        <v>0.1751283688275</v>
+      </c>
+      <c r="R19">
+        <v>0.70051347531</v>
+      </c>
+      <c r="S19">
+        <v>0.006247317099465948</v>
+      </c>
+      <c r="T19">
+        <v>0.003084475993889266</v>
       </c>
     </row>
   </sheetData>
